--- a/Excel/Enum.xlsx
+++ b/Excel/Enum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ProjectRA\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Works\Projects\ProejctRA\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ECC362-3C26-490A-9972-EF323B56BD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A04D39-7185-4646-89FD-233A8915F086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="23670" windowHeight="11295" xr2:uid="{7253ED27-9A3C-4F5D-A65F-C4537287CAC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7253ED27-9A3C-4F5D-A65F-C4537287CAC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,21 @@
   <si>
     <t>map</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>big</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
@@ -175,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}" name="Enum" displayName="Enum" ref="B2:E5" totalsRowShown="0">
-  <autoFilter ref="B2:E5" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}" name="Enum" displayName="Enum" ref="B2:E8" totalsRowShown="0">
+  <autoFilter ref="B2:E8" xr:uid="{FF48FF36-6B4D-478E-8884-6868BB153E75}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B0F5C06A-3A90-4B8B-94E7-96D67FA8E046}" name="type_name"/>
     <tableColumn id="2" xr3:uid="{C5503A09-C8B4-4BCC-BE08-97306BB08BF4}" name="data_name"/>
@@ -504,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2CDA8B-CB63-42E5-B7F4-E78A9D883E3E}">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,6 +589,51 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF($B$5:Enum[[#This Row],[type_name]], Enum[[#This Row],[type_name]])</f>
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF($B$5:Enum[[#This Row],[type_name]], Enum[[#This Row],[type_name]])</f>
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF($B$5:Enum[[#This Row],[type_name]], Enum[[#This Row],[type_name]])</f>
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
